--- a/results/07_plots/worst_symptom_by_season_chart.xlsx
+++ b/results/07_plots/worst_symptom_by_season_chart.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\tinnitus-country\results\07_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7156C52-4090-4052-807E-EB88863C31E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D11B9E-1A66-4E54-969F-FE97B22E6CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71AE193A-8BA3-420D-AE96-943218462561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$11:$B$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -201,7 +204,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16144137473141212"/>
+          <c:y val="1.4218647277596936E-2"/>
+          <c:w val="0.4516712591830121"/>
+          <c:h val="0.938672435415012"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -268,16 +281,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.3E-2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3999999999999997E-2</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,16 +365,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.6999999999999994E-2</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,16 +475,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.129</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.115</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.124</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.105</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,16 +559,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.113</c:v>
+                  <c:v>0.109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14599999999999999</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.112</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.127</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -630,16 +643,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.113</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.106</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -714,16 +727,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9000000000000005E-2</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.123</c:v>
+                  <c:v>0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11799999999999999</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -802,16 +815,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.09</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6000000000000002E-2</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>9.9000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.114</c:v>
+                  <c:v>0.111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,13 +903,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20300000000000001</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.16800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.16</c:v>
@@ -978,16 +991,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.10299999999999999</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.126</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.115</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.109</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,7 +1022,7 @@
         </c:dLbls>
         <c:dropLines>
           <c:spPr>
-            <a:ln w="9525">
+            <a:ln w="3175">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -1059,8 +1072,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -1108,8 +1121,8 @@
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
@@ -1137,8 +1150,8 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
@@ -1146,7 +1159,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1166,8 +1179,8 @@
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
@@ -1201,12 +1214,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -1249,7 +1262,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1807,16 +1821,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>582175</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>164625</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>521663</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57797</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>329495</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>181536</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>222666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2143,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018F508-4C00-454F-AD85-125A5274D41F}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2174,16 +2188,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>6.3E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C2" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2191,16 +2205,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>8.6999999999999994E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>7.9000000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>7.8E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,16 +2222,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.129</v>
+        <v>0.126</v>
       </c>
       <c r="C4" s="2">
-        <v>0.115</v>
+        <v>0.126</v>
       </c>
       <c r="D4" s="2">
-        <v>0.124</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="2">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2225,16 +2239,16 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>0.113</v>
+        <v>0.109</v>
       </c>
       <c r="C5" s="2">
-        <v>0.14599999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>0.112</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2242,16 +2256,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>0.113</v>
+        <v>0.115</v>
       </c>
       <c r="C6" s="2">
-        <v>0.106</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="E6" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2259,16 +2273,16 @@
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>9.9000000000000005E-2</v>
+        <v>0.127</v>
       </c>
       <c r="C7" s="2">
-        <v>9.9000000000000005E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.123</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2276,16 +2290,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.09</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.114</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2293,13 +2307,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.20300000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="C9" s="2">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.16800000000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.17799999999999999</v>
       </c>
       <c r="E9" s="2">
         <v>0.16</v>
@@ -2310,16 +2324,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.10299999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>0.126</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>0.115</v>
+        <v>0.127</v>
       </c>
       <c r="E10" s="2">
-        <v>0.109</v>
+        <v>0.108</v>
       </c>
     </row>
   </sheetData>
@@ -2336,6 +2350,7 @@
     <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/07_plots/worst_symptom_by_season_chart.xlsx
+++ b/results/07_plots/worst_symptom_by_season_chart.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\tinnitus-country\results\07_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D11B9E-1A66-4E54-969F-FE97B22E6CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F061931-3010-4B0B-A003-9A572B55195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71AE193A-8BA3-420D-AE96-943218462561}"/>
+    <workbookView xWindow="-15220" yWindow="-14510" windowWidth="51420" windowHeight="14020" xr2:uid="{71AE193A-8BA3-420D-AE96-943218462561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$11:$B$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$11:$J$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,25 +54,25 @@
     <t>worst_symptom</t>
   </si>
   <si>
-    <t>Because of the tinnitus it is difficult to concentrate.</t>
-  </si>
-  <si>
-    <t>I don't have any of these symptoms.</t>
-  </si>
-  <si>
-    <t>I am more irritable with my family, friends and colleagues.</t>
+    <t xml:space="preserve"> I am more irritable with family.</t>
   </si>
   <si>
     <t>I am more sensitive to environmental noises.</t>
   </si>
   <si>
-    <t>It is difficult to follow a conversation, a piece of music or a film.</t>
+    <t>I find it difficult to concentrate.</t>
   </si>
   <si>
-    <t>It is hard for me to get to sleep.</t>
+    <t>I find it difficult to follow a conversation.</t>
+  </si>
+  <si>
+    <t>it is hard for me to go to sleep.</t>
   </si>
   <si>
     <t>I am feeling depressed.</t>
+  </si>
+  <si>
+    <t>I have none of these symptoms.</t>
   </si>
   <si>
     <t>I find it harder to relax.</t>
@@ -227,7 +227,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I am more irritable with my family, friends and colleagues.</c:v>
+                  <c:v> I am more irritable with family.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -247,9 +247,7 @@
             <c:spPr>
               <a:noFill/>
               <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -395,7 +393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Because of the tinnitus it is difficult to concentrate.</c:v>
+                  <c:v>I find it difficult to concentrate.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -432,11 +430,7 @@
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
                 <a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
+                  <a:noFill/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -505,7 +499,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>It is difficult to follow a conversation, a piece of music or a film.</c:v>
+                  <c:v>I find it difficult to follow a conversation.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -589,7 +583,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>It is hard for me to get to sleep.</c:v>
+                  <c:v>it is hard for me to go to sleep.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -757,7 +751,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>I don't have any of these symptoms.</c:v>
+                  <c:v>I have none of these symptoms.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -765,10 +759,11 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1022,7 +1017,7 @@
         </c:dLbls>
         <c:dropLines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -1201,6 +1196,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62969345381194808"/>
+          <c:y val="0.3106562268281487"/>
+          <c:w val="0.35423016608250896"/>
+          <c:h val="0.37868736979626427"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1277,6 +1282,1432 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Because of the Tinnitus...</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I am more irritable with family.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I am more sensitive to environmental noises.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I find it difficult to concentrate.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I find it difficult to follow a conversation.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>it is hard for me to go to sleep.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I am feeling depressed.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I have none of these symptoms.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I find it harder to relax.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I have strong worries.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>spring</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>summer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>autumn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6CA4-49FF-A066-F04632CBBF3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="10"/>
+        <c:overlap val="100"/>
+        <c:serLines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:serLines>
+        <c:axId val="1343655631"/>
+        <c:axId val="1343656047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1343655631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343656047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1343656047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343655631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67930443577760102"/>
+          <c:y val="9.7426261892327587E-2"/>
+          <c:w val="0.31228527267445505"/>
+          <c:h val="0.84222656161304243"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1317,6 +2748,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="235">
   <cs:axisTitle>
@@ -1817,20 +3285,538 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>521663</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57797</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>56381</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>302490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>181536</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>222666</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>529054</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1850,6 +3836,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292397</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>199615</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B2371E-CAD4-481C-A9C3-09F19958B341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2157,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018F508-4C00-454F-AD85-125A5274D41F}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2185,7 +4207,7 @@
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>0.06</v>
@@ -2202,7 +4224,7 @@
     </row>
     <row r="3" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>8.5999999999999993E-2</v>
@@ -2219,7 +4241,7 @@
     </row>
     <row r="4" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>0.126</v>
@@ -2236,7 +4258,7 @@
     </row>
     <row r="5" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>0.109</v>
@@ -2253,7 +4275,7 @@
     </row>
     <row r="6" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>0.115</v>
@@ -2270,7 +4292,7 @@
     </row>
     <row r="7" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>0.127</v>
@@ -2287,7 +4309,7 @@
     </row>
     <row r="8" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>8.1000000000000003E-2</v>
@@ -2350,7 +4372,7 @@
     <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/07_plots/worst_symptom_by_season_chart.xlsx
+++ b/results/07_plots/worst_symptom_by_season_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\tinnitus-country\results\07_plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F061931-3010-4B0B-A003-9A572B55195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC443D3C-A339-4F82-8A08-ECE6D629BE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15220" yWindow="-14510" windowWidth="51420" windowHeight="14020" xr2:uid="{71AE193A-8BA3-420D-AE96-943218462561}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71AE193A-8BA3-420D-AE96-943218462561}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4179,7 +4179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5018F508-4C00-454F-AD85-125A5274D41F}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
